--- a/Project_V/Assets/ExcelFiles/gamesettings.xlsx
+++ b/Project_V/Assets/ExcelFiles/gamesettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B3F7B7-5F8A-4641-859C-1455A603096A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EBA00E-AED2-4ABA-B4D4-4500C3801702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2880" windowWidth="19545" windowHeight="12240" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="telephone" sheetId="1" r:id="rId1"/>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Project_V/Assets/ExcelFiles/gamesettings.xlsx
+++ b/Project_V/Assets/ExcelFiles/gamesettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EBA00E-AED2-4ABA-B4D4-4500C3801702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433FA494-C48C-42EE-854C-6A392574F0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="150" yWindow="825" windowWidth="27180" windowHeight="10890" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="telephone" sheetId="1" r:id="rId1"/>
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1137,7 +1137,7 @@
         <v>20</v>
       </c>
       <c r="I2" s="3">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
